--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3236634.578229369</v>
+        <v>3340814.21268044</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>42.64559995940405</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>8.276279573898726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>66.41180510878515</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.6902031700479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.28300967787795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>273.4093660351543</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.131358076981</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>19.89928445781437</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>213.1751740426451</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>168.1727619484271</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12.97117703990052</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>218.2082221722107</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03048557918976</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>106.1798850986046</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.9154861872847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>62.1884230276014</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.8135405258567</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5188249813913</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552966</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>118.4312223122544</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>158.2472899190577</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.0175085755505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2747.447050436851</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2394.678395166736</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064554</v>
@@ -4413,16 +4415,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>2078.679253373408</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>1909.743070445501</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>2844.817070561641</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835076</v>
+        <v>2777.734439138626</v>
       </c>
       <c r="W4" t="n">
-        <v>902.4041387981149</v>
+        <v>2488.317269101665</v>
       </c>
       <c r="X4" t="n">
-        <v>674.4145879000976</v>
+        <v>2260.327718203648</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>2260.327718203648</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2006.793820398076</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4571,13 +4573,13 @@
         <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993392</v>
+        <v>2685.613599606915</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723278</v>
+        <v>2332.8449443368</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462198</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2393.393660462198</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1592.041635554732</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1302.938768680375</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.254280474488</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W7" t="n">
-        <v>758.8371104375277</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X7" t="n">
-        <v>530.8475595395104</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.513093752761</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1738.550576812349</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1380.284878205598</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>994.4966256073542</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4808,46 +4810,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2884.252265792694</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.112933816883</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4893,7 +4895,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>492.7661230698578</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>323.8299401419509</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983421</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>562.0806046698464</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.0806046698464</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2333.297989183966</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,31 +5266,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6075,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2875.571313159223</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.571313159223</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>450.3518748756881</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>283.155775590568</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3057.219777989463</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>695.5020655703109</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>547.5889719879178</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>400.6990244900074</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,22 +6688,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6773,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
         <v>577.3880777468471</v>
@@ -6786,16 +6788,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6853,16 +6855,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167292</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>2505.71655096576</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>2484.576679364215</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="38">
@@ -7166,49 +7168,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>923.4916164683283</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5554335404214</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7369,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,46 +7417,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2951.54259528685</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C43" t="n">
-        <v>2782.606412358943</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D43" t="n">
-        <v>2632.489772946607</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E43" t="n">
-        <v>2484.576679364214</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F43" t="n">
-        <v>2337.686731866303</v>
+        <v>335.7491137930459</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4634.751540034345</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4415.150075057286</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4126.074848401484</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3871.390360195597</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3581.973190158636</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3353.983639260619</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3133.191060117089</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,13 +7669,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7740,10 +7742,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>551.263652184387</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>403.3505586019938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>256.4606111040835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788572</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>34.11482774761927</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.6691671648101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>84.24553961896777</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.43328057277111</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.00531331087754</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>40.30478226780133</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>125.5054897610395</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>28.00274033431478</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>7.276848373211095</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>4.506629716718379</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778555</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179357</v>
@@ -26430,31 +26432,31 @@
         <v>11167.03225179357</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342755</v>
+        <v>-788095.1604342756</v>
       </c>
       <c r="C6" t="n">
         <v>540649.5852933174</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933174</v>
+        <v>540649.5852933167</v>
       </c>
       <c r="E6" t="n">
         <v>288729.9158379497</v>
@@ -26534,34 +26536,34 @@
         <v>614142.3776453049</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453047</v>
+        <v>614142.3776453044</v>
       </c>
       <c r="H6" t="n">
+        <v>614142.3776453044</v>
+      </c>
+      <c r="I6" t="n">
+        <v>614142.3776453044</v>
+      </c>
+      <c r="J6" t="n">
+        <v>396611.175248027</v>
+      </c>
+      <c r="K6" t="n">
+        <v>614142.377645305</v>
+      </c>
+      <c r="L6" t="n">
+        <v>614142.3776453052</v>
+      </c>
+      <c r="M6" t="n">
+        <v>529087.3497097928</v>
+      </c>
+      <c r="N6" t="n">
+        <v>614142.3776453048</v>
+      </c>
+      <c r="O6" t="n">
+        <v>614142.377645305</v>
+      </c>
+      <c r="P6" t="n">
         <v>614142.3776453045</v>
-      </c>
-      <c r="I6" t="n">
-        <v>614142.3776453049</v>
-      </c>
-      <c r="J6" t="n">
-        <v>396611.1752480274</v>
-      </c>
-      <c r="K6" t="n">
-        <v>614142.3776453045</v>
-      </c>
-      <c r="L6" t="n">
-        <v>614142.3776453049</v>
-      </c>
-      <c r="M6" t="n">
-        <v>529087.3497097929</v>
-      </c>
-      <c r="N6" t="n">
-        <v>614142.377645305</v>
-      </c>
-      <c r="O6" t="n">
-        <v>614142.3776453048</v>
-      </c>
-      <c r="P6" t="n">
-        <v>614142.3776453048</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>340.0882417040765</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>319.4759788962362</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>185.7258382150429</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.89445018204691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>334.9898820931296</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>54.34289243498057</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>77.41759119918822</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>198.6853688942804</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>193.7008716990664</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>218.0651767076265</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>135.6442959783118</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>7.501433216826427</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968506</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32558,10 +32560,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32795,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940696</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946159</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748323</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028601763</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36443,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802857</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3340814.21268044</v>
+        <v>3336801.602666448</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8087150.98111448</v>
+        <v>8087150.981114479</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.64559995940405</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>46.27182779876098</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>66.41180510878515</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>207.5754705974919</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>273.4093660351543</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>27.63355479238479</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.89928445781437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>357.9638926978961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.1727619484271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>12.97117703990052</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>90.12084770937717</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.03048557918976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G19" t="n">
-        <v>23.10998325717172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>106.1798850986046</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>62.1884230276014</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.8135405258567</v>
+        <v>53.07327741456097</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>20.92847288552966</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>80.67842139643641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>158.2472899190577</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269323</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.243802269323</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2078.679253373408</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C4" t="n">
-        <v>1909.743070445501</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D4" t="n">
-        <v>1759.626431033165</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450772</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952862</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435998</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>2844.817070561641</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>2777.734439138626</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W4" t="n">
-        <v>2488.317269101665</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X4" t="n">
-        <v>2260.327718203648</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y4" t="n">
-        <v>2260.327718203648</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1888.29351386504</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1530.027815258289</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1144.239562660045</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>733.2536578704373</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>318.1812077154338</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2685.613599606915</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.8449443368</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1899.381866480023</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1707.69598230685</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1707.69598230685</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1418.593115432493</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640133</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1293.362432603173</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1564.446462565634</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>1178.658209967389</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>767.6723051777819</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>492.7661230698578</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>323.8299401419509</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1746.43293154362</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981149</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>674.4145879000976</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>674.4145879000976</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.240688199802</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.823518162841</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.833967264824</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.041388121294</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5372,13 +5372,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
-        <v>117.1600804794585</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138411</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3584617859342</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2418223735984</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>597.2418223735984</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>450.3518748756881</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>283.155775590568</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>762.547769317909</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055732</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.1035305473698</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.097755135313</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928005</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.71655096576</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2484.576679364215</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311989</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032921</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>482.6390612909563</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>482.6390612909563</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>335.7491137930459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7800,7 +7800,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.11482774761927</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>84.24553961896777</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.43328057277111</v>
+        <v>114.1735436840669</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610395</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.276848373211095</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696443.6571417148</v>
+        <v>696443.6571417147</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210052</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314483</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.0670231448</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314486</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26450,13 +26450,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342756</v>
+        <v>-788095.1604342749</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.5852933174</v>
+        <v>540649.5852933171</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933167</v>
+        <v>540649.5852933172</v>
       </c>
       <c r="E6" t="n">
-        <v>288729.9158379497</v>
+        <v>288382.5365835923</v>
       </c>
       <c r="F6" t="n">
-        <v>614142.3776453049</v>
+        <v>613794.9983909475</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453044</v>
+        <v>613794.9983909477</v>
       </c>
       <c r="H6" t="n">
-        <v>614142.3776453044</v>
+        <v>613794.9983909476</v>
       </c>
       <c r="I6" t="n">
-        <v>614142.3776453044</v>
+        <v>613794.9983909482</v>
       </c>
       <c r="J6" t="n">
-        <v>396611.175248027</v>
+        <v>396263.7959936704</v>
       </c>
       <c r="K6" t="n">
-        <v>614142.377645305</v>
+        <v>613794.9983909478</v>
       </c>
       <c r="L6" t="n">
-        <v>614142.3776453052</v>
+        <v>613794.9983909477</v>
       </c>
       <c r="M6" t="n">
-        <v>529087.3497097928</v>
+        <v>528739.970455436</v>
       </c>
       <c r="N6" t="n">
-        <v>614142.3776453048</v>
+        <v>613794.9983909477</v>
       </c>
       <c r="O6" t="n">
-        <v>614142.377645305</v>
+        <v>613794.9983909478</v>
       </c>
       <c r="P6" t="n">
-        <v>614142.3776453045</v>
+        <v>613794.9983909476</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.0882417040765</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>319.0010639722466</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>185.7258382150429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>87.03229378982854</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>54.34289243498057</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>61.29859787766254</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.6853688942804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>52.95783295555736</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.0651767076265</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.6442959783118</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>99.64817762206472</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31998,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940696</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962517</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802857</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3336801.602666448</v>
+        <v>3338562.132969234</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8087150.981114479</v>
+        <v>8087150.98111448</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>46.27182779876098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50.73003670622291</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>52.83391759428088</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>207.5754705974919</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>27.63355479238479</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>42.42206642987857</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>357.9638926978961</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>122.7433563196741</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>90.12084770937717</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.29024472877059</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>171.4915124652521</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934424</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>145.7379152067522</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.07327741456097</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>133.3133845470784</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420842</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>46.15319674220952</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>97.77174959685436</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1664.678443125551</v>
+        <v>2038.144201386631</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1669.18168444622</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4372,10 +4372,10 @@
         <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>3120.355548834272</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936254</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2257.256030805451</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="C5" t="n">
-        <v>1888.29351386504</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1530.027815258289</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1144.239562660045</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>733.2536578704373</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>318.1812077154338</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,13 +4579,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805451</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1899.381866480023</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1707.69598230685</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="T7" t="n">
-        <v>1707.69598230685</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.593115432493</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V7" t="n">
-        <v>1163.908627226606</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2291.674678112796</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1922.712161172384</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.446462565634</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.658209967389</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>767.6723051777819</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176918</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y8" t="n">
-        <v>2678.274518176918</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1746.43293154362</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1746.43293154362</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1746.43293154362</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.43293154362</v>
+        <v>1861.344805938219</v>
       </c>
       <c r="W10" t="n">
-        <v>1457.015761506659</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5287,7 +5287,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5357,19 +5357,19 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,16 +5530,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>572.9069687101817</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429802</v>
@@ -7092,55 +7092,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694706</v>
@@ -7201,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.0314858713389</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.1196935303856</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.21924749803978</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>79.97174018228495</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.1735436840669</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>33.93343655154948</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>134.8730892594351</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>127.9379057921828</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417148</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>738937.5928778558</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
@@ -26334,28 +26334,28 @@
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.0670231448</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314483</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.0670231448</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314477</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179345</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26450,10 +26450,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179356</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-788095.1604342749</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.5852933171</v>
+        <v>540649.5852933176</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933172</v>
+        <v>540649.5852933173</v>
       </c>
       <c r="E6" t="n">
-        <v>288382.5365835923</v>
+        <v>288695.1779125134</v>
       </c>
       <c r="F6" t="n">
-        <v>613794.9983909475</v>
+        <v>614107.639719869</v>
       </c>
       <c r="G6" t="n">
-        <v>613794.9983909477</v>
+        <v>614107.639719869</v>
       </c>
       <c r="H6" t="n">
-        <v>613794.9983909476</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="I6" t="n">
-        <v>613794.9983909482</v>
+        <v>614107.639719869</v>
       </c>
       <c r="J6" t="n">
-        <v>396263.7959936704</v>
+        <v>396576.4373225916</v>
       </c>
       <c r="K6" t="n">
-        <v>613794.9983909478</v>
+        <v>614107.6397198692</v>
       </c>
       <c r="L6" t="n">
-        <v>613794.9983909477</v>
+        <v>614107.6397198692</v>
       </c>
       <c r="M6" t="n">
-        <v>528739.970455436</v>
+        <v>529052.6117843573</v>
       </c>
       <c r="N6" t="n">
-        <v>613794.9983909477</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="O6" t="n">
-        <v>613794.9983909478</v>
+        <v>614107.6397198689</v>
       </c>
       <c r="P6" t="n">
-        <v>613794.9983909476</v>
+        <v>614107.639719869</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>319.0010639722466</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>303.9530049144601</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>312.4389741767267</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>87.03229378982854</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>61.29859787766254</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>147.3469589015633</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>52.95783295555736</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>81.17461381994599</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>99.64817762206472</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>186.8473985950574</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,7 +32077,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32548,10 +32548,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
